--- a/hot100/0.xlsx
+++ b/hot100/0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\myalgo\hot100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128B9671-0D3F-4132-9C3D-EF225F9BE93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D71530-ABBE-47CD-A3A2-02C1BA368906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>1. 两数之和</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>438. 找到字符串中所有字母异位词</t>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
+  </si>
+  <si>
+    <t>238. 除自身以外数组的乘积</t>
+  </si>
+  <si>
+    <t>76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>560. 和为 K 的子数组</t>
+  </si>
+  <si>
+    <t>189. 轮转数组</t>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
   </si>
 </sst>
 </file>
@@ -366,58 +393,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hot100/0.xlsx
+++ b/hot100/0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\myalgo\hot100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D71530-ABBE-47CD-A3A2-02C1BA368906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E05A5A-5067-4058-8F75-47943EE6E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>1. 两数之和</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>41. 缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,25 +470,30 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hot100/0.xlsx
+++ b/hot100/0.xlsx
@@ -423,11 +423,11 @@
     <col min="1" max="1" style="2" width="31.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="25.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="19.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +438,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -464,7 +464,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -473,7 +473,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -482,7 +482,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -493,7 +493,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -502,7 +502,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -513,7 +513,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -522,7 +522,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,7 +533,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -551,7 +551,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>

--- a/hot100/0.xlsx
+++ b/hot100/0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>1. 两数之和</t>
   </si>
@@ -67,7 +67,21 @@
     <t>189. 轮转数组</t>
   </si>
   <si>
+    <t>48. 旋转图像</t>
+  </si>
+  <si>
     <t>283. 移动零</t>
+  </si>
+  <si>
+    <t>54. 螺旋矩阵
+代码
+测试用例
+测试结果
+测试结果
+54. 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>73. 矩阵置零</t>
   </si>
 </sst>
 </file>
@@ -414,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -546,14 +560,16 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -561,12 +577,23 @@
       <c r="E13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hot100/0.xlsx
+++ b/hot100/0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>1. 两数之和</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t>240. 搜索二维矩阵 II</t>
   </si>
   <si>
     <t>15. 三数之和</t>
@@ -473,14 +476,16 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -489,7 +494,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -498,10 +503,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -509,7 +514,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -518,10 +523,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -529,7 +534,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -558,10 +563,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -569,7 +574,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -578,7 +583,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -587,7 +592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/hot100/0.xlsx
+++ b/hot100/0.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="27720" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
   <si>
     <t>1. 两数之和</t>
   </si>
@@ -76,40 +77,677 @@
     <t>283. 移动零</t>
   </si>
   <si>
-    <t>54. 螺旋矩阵
-代码
-测试用例
-测试结果
-测试结果
-54. 螺旋矩阵</t>
+    <t>54. 螺旋矩阵</t>
   </si>
   <si>
     <t>73. 矩阵置零</t>
+  </si>
+  <si>
+    <t>`哈希`</t>
+  </si>
+  <si>
+    <t>`双指针`</t>
+  </si>
+  <si>
+    <t>15. 三数之和 |X</t>
+  </si>
+  <si>
+    <t>`滑动窗口`</t>
+  </si>
+  <si>
+    <t>`子串`</t>
+  </si>
+  <si>
+    <t>76. 最小覆盖子串 |X</t>
+  </si>
+  <si>
+    <t>`普通数组`</t>
+  </si>
+  <si>
+    <t>`矩阵`</t>
+  </si>
+  <si>
+    <t>`链表`</t>
+  </si>
+  <si>
+    <t>相交链表</t>
+  </si>
+  <si>
+    <t>反转链表</t>
+  </si>
+  <si>
+    <t>回文链表</t>
+  </si>
+  <si>
+    <t>环形链表</t>
+  </si>
+  <si>
+    <t>环形链表 II</t>
+  </si>
+  <si>
+    <t>合并两个有序链表</t>
+  </si>
+  <si>
+    <t>两数相加</t>
+  </si>
+  <si>
+    <t>删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>随机链表的复制</t>
+  </si>
+  <si>
+    <t>排序链表</t>
+  </si>
+  <si>
+    <t>合并 K 个升序链表</t>
+  </si>
+  <si>
+    <t>LRU 缓存</t>
+  </si>
+  <si>
+    <t>`二叉树`</t>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>翻转二叉树</t>
+  </si>
+  <si>
+    <t>对称二叉树</t>
+  </si>
+  <si>
+    <t>二叉树的直径</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>二叉搜索树中第K小的元素</t>
+  </si>
+  <si>
+    <t>二叉树的右视图</t>
+  </si>
+  <si>
+    <t>二叉树展开为链表</t>
+  </si>
+  <si>
+    <t>从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>路径总和 III</t>
+  </si>
+  <si>
+    <t>二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>二叉树中的最大路径和</t>
+  </si>
+  <si>
+    <t>`图论`</t>
+  </si>
+  <si>
+    <t>岛屿数量</t>
+  </si>
+  <si>
+    <t>腐烂的橘子</t>
+  </si>
+  <si>
+    <t>课程表</t>
+  </si>
+  <si>
+    <t>实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>`回溯`</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>组合总和</t>
+  </si>
+  <si>
+    <t>括号生成</t>
+  </si>
+  <si>
+    <t>单词搜索</t>
+  </si>
+  <si>
+    <t>分割回文串</t>
+  </si>
+  <si>
+    <t>N 皇后</t>
+  </si>
+  <si>
+    <t>`二分查找`</t>
+  </si>
+  <si>
+    <t>搜索插入位置</t>
+  </si>
+  <si>
+    <t>搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>`栈`</t>
+  </si>
+  <si>
+    <t>有效的括号</t>
+  </si>
+  <si>
+    <t>最小栈</t>
+  </si>
+  <si>
+    <t>字符串解码</t>
+  </si>
+  <si>
+    <t>每日温度</t>
+  </si>
+  <si>
+    <t>柱状图中最大的矩形</t>
+  </si>
+  <si>
+    <t>`堆`</t>
+  </si>
+  <si>
+    <t>数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>数据流的中位数</t>
+  </si>
+  <si>
+    <t>`贪心算法`</t>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>跳跃游戏</t>
+  </si>
+  <si>
+    <t>跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>划分字母区间</t>
+  </si>
+  <si>
+    <t>`动态规划`</t>
+  </si>
+  <si>
+    <t>爬楼梯</t>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+  </si>
+  <si>
+    <t>打家劫舍</t>
+  </si>
+  <si>
+    <t>完全平方数</t>
+  </si>
+  <si>
+    <t>零钱兑换</t>
+  </si>
+  <si>
+    <t>单词拆分</t>
+  </si>
+  <si>
+    <t>最长递增子序列</t>
+  </si>
+  <si>
+    <t>乘积最大子数组</t>
+  </si>
+  <si>
+    <t>分割等和子集</t>
+  </si>
+  <si>
+    <t>最长有效括号</t>
+  </si>
+  <si>
+    <t>`多维动态规划`</t>
+  </si>
+  <si>
+    <t>不同路径</t>
+  </si>
+  <si>
+    <t>最小路径和</t>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+  </si>
+  <si>
+    <t>最长公共子序列</t>
+  </si>
+  <si>
+    <t>编辑距离</t>
+  </si>
+  <si>
+    <t>`技巧`</t>
+  </si>
+  <si>
+    <t>只出现一次的数字</t>
+  </si>
+  <si>
+    <t>多数元素</t>
+  </si>
+  <si>
+    <t>颜色分类</t>
+  </si>
+  <si>
+    <t>下一个排列</t>
+  </si>
+  <si>
+    <t>寻找重复数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,27 +755,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -148,10 +1073,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -189,71 +1114,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,7 +1206,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -304,11 +1229,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -317,13 +1242,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -333,7 +1258,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -342,7 +1267,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,7 +1276,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -359,10 +1284,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -422,184 +1347,741 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" style="2" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="31.5733333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.0066666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.1466666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.72" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.72" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="20.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" ht="20.25" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" ht="20.25" customHeight="1" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" ht="20.25" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" ht="20.25" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" ht="20.25" customHeight="1" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" ht="20.25" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" ht="20.25" customHeight="1" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" ht="20.25" customHeight="1" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" ht="20.25" customHeight="1" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="13" ht="20.25" customHeight="1" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="15" ht="16.5" customHeight="1" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>